--- a/CRADLE/Final_assembly_close/各種解析データ.xlsx
+++ b/CRADLE/Final_assembly_close/各種解析データ.xlsx
@@ -4,16 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12555"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ｂｙ_10cm" sheetId="1" r:id="rId1"/>
     <sheet name="10 - 100 kmh" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1146,11 +1143,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="76295552"/>
-        <c:axId val="76294016"/>
+        <c:axId val="100672256"/>
+        <c:axId val="37586048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76295552"/>
+        <c:axId val="100672256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,12 +1157,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76294016"/>
+        <c:crossAx val="37586048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76294016"/>
+        <c:axId val="37586048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1176,14 +1173,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76295552"/>
+        <c:crossAx val="100672256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2905,11 +2901,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107307008"/>
-        <c:axId val="120436608"/>
+        <c:axId val="37746176"/>
+        <c:axId val="37748096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107307008"/>
+        <c:axId val="37746176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -2940,12 +2936,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120436608"/>
+        <c:crossAx val="37748096"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="120436608"/>
+        <c:axId val="37748096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18"/>
@@ -2980,7 +2976,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107307008"/>
+        <c:crossAx val="37746176"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4751,11 +4747,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="121414400"/>
-        <c:axId val="121416320"/>
+        <c:axId val="37913344"/>
+        <c:axId val="37915264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121414400"/>
+        <c:axId val="37913344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -4786,12 +4782,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121416320"/>
+        <c:crossAx val="37915264"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121416320"/>
+        <c:axId val="37915264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18"/>
@@ -4826,7 +4822,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121414400"/>
+        <c:crossAx val="37913344"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5182,11 +5178,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="97022720"/>
-        <c:axId val="97024640"/>
+        <c:axId val="38131200"/>
+        <c:axId val="38133120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97022720"/>
+        <c:axId val="38131200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5265,12 +5261,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97024640"/>
+        <c:crossAx val="38133120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97024640"/>
+        <c:axId val="38133120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5347,7 +5343,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97022720"/>
+        <c:crossAx val="38131200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5734,11 +5730,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="96838400"/>
-        <c:axId val="96840320"/>
+        <c:axId val="38184448"/>
+        <c:axId val="38186368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96838400"/>
+        <c:axId val="38184448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5817,12 +5813,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96840320"/>
+        <c:crossAx val="38186368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96840320"/>
+        <c:axId val="38186368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5899,7 +5895,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96838400"/>
+        <c:crossAx val="38184448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6336,228 +6332,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>F-wing</v>
-          </cell>
-          <cell r="H14" t="str">
-            <v>R-wing</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>10</v>
-          </cell>
-          <cell r="C15">
-            <v>3.3482007107167422</v>
-          </cell>
-          <cell r="E15">
-            <v>29.198686737749757</v>
-          </cell>
-          <cell r="H15">
-            <v>10</v>
-          </cell>
-          <cell r="I15">
-            <v>3.1072157673211178</v>
-          </cell>
-          <cell r="K15">
-            <v>111.99527863647749</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>20</v>
-          </cell>
-          <cell r="C16">
-            <v>3.5456179103652925</v>
-          </cell>
-          <cell r="E16">
-            <v>27.628062061723202</v>
-          </cell>
-          <cell r="H16">
-            <v>20</v>
-          </cell>
-          <cell r="I16">
-            <v>3.1344976900831365</v>
-          </cell>
-          <cell r="K16">
-            <v>110.08104372434069</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>30</v>
-          </cell>
-          <cell r="C17">
-            <v>3.5782445150537039</v>
-          </cell>
-          <cell r="E17">
-            <v>27.813491864294402</v>
-          </cell>
-          <cell r="H17">
-            <v>30</v>
-          </cell>
-          <cell r="I17">
-            <v>3.141509188604362</v>
-          </cell>
-          <cell r="K17">
-            <v>109.7291195572176</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>40</v>
-          </cell>
-          <cell r="C18">
-            <v>3.5263723584553364</v>
-          </cell>
-          <cell r="E18">
-            <v>28.829882027517115</v>
-          </cell>
-          <cell r="H18">
-            <v>40</v>
-          </cell>
-          <cell r="I18">
-            <v>3.126694246509262</v>
-          </cell>
-          <cell r="K18">
-            <v>108.34249836801598</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>50</v>
-          </cell>
-          <cell r="C19">
-            <v>3.5446788666918105</v>
-          </cell>
-          <cell r="E19">
-            <v>28.785065748056645</v>
-          </cell>
-          <cell r="H19">
-            <v>50</v>
-          </cell>
-          <cell r="I19">
-            <v>3.1406114592141683</v>
-          </cell>
-          <cell r="K19">
-            <v>108.64100709624691</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>60</v>
-          </cell>
-          <cell r="C20">
-            <v>3.5932468986102042</v>
-          </cell>
-          <cell r="E20">
-            <v>28.271831281309446</v>
-          </cell>
-          <cell r="H20">
-            <v>60</v>
-          </cell>
-          <cell r="I20">
-            <v>3.1579626453511245</v>
-          </cell>
-          <cell r="K20">
-            <v>109.39154851823221</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>70</v>
-          </cell>
-          <cell r="C21">
-            <v>3.6156290446529686</v>
-          </cell>
-          <cell r="E21">
-            <v>27.991289200057921</v>
-          </cell>
-          <cell r="H21">
-            <v>70</v>
-          </cell>
-          <cell r="I21">
-            <v>3.1699487244015225</v>
-          </cell>
-          <cell r="K21">
-            <v>109.84994019280708</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>80</v>
-          </cell>
-          <cell r="C22">
-            <v>3.6129954775206174</v>
-          </cell>
-          <cell r="E22">
-            <v>27.642250621814402</v>
-          </cell>
-          <cell r="H22">
-            <v>80</v>
-          </cell>
-          <cell r="I22">
-            <v>3.1754174484544184</v>
-          </cell>
-          <cell r="K22">
-            <v>110.07868181717878</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>90</v>
-          </cell>
-          <cell r="C23">
-            <v>3.497501683596822</v>
-          </cell>
-          <cell r="E23">
-            <v>29.068739097742078</v>
-          </cell>
-          <cell r="H23">
-            <v>90</v>
-          </cell>
-          <cell r="I23">
-            <v>3.1574124387374503</v>
-          </cell>
-          <cell r="K23">
-            <v>108.73802697505108</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>100</v>
-          </cell>
-          <cell r="C24">
-            <v>3.5376204485629548</v>
-          </cell>
-          <cell r="E24">
-            <v>29.062867969428481</v>
-          </cell>
-          <cell r="H24">
-            <v>100</v>
-          </cell>
-          <cell r="I24">
-            <v>3.1531794205741246</v>
-          </cell>
-          <cell r="K24">
-            <v>108.06633691524</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
@@ -6847,8 +6621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q47" sqref="Q47"/>
+    <sheetView topLeftCell="S42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18738,8 +18512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B11:L45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
